--- a/data/SG GDP Total and by Industry ANNUAL.xlsx
+++ b/data/SG GDP Total and by Industry ANNUAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\MTech EBAC Sem 1\Practice Module\F5-APM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04D461A-84A4-4A57-A833-DF8A09FE8F94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82E00DA-95AA-444F-AD77-08FE742EEE4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -19,13 +19,25 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'GDP per sector'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'GDP Total'!$A$1:$B$1</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="111">
   <si>
     <t>Million Dollars</t>
   </si>
@@ -360,6 +372,12 @@
   <si>
     <t>In millions (SGD)</t>
   </si>
+  <si>
+    <t>GDP At Current Market Prices [In millions (SGD)]</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
 </sst>
 </file>
 
@@ -368,7 +386,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -380,14 +398,25 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -403,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -437,11 +466,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2354">
+  <cellXfs count="2359">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7495,6 +7539,21 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -7812,21 +7871,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:BJ82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS1" workbookViewId="0">
+    <sheetView topLeftCell="AS1" workbookViewId="0">
       <selection activeCell="BC52" sqref="BC52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="68.3671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:62" ht="14.4">
+    <row r="2" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="BJ2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:62" ht="14.4">
+    <row r="3" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -8014,7 +8073,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:62" ht="35.700000000000003" customHeight="1">
+    <row r="4" spans="1:62" ht="35.700000000000003" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>63</v>
       </c>
@@ -8202,7 +8261,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:62" ht="14.4">
+    <row r="5" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>65</v>
       </c>
@@ -8390,7 +8449,7 @@
         <v>469095.9</v>
       </c>
     </row>
-    <row r="6" spans="1:62" ht="14.4">
+    <row r="6" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="67" t="s">
         <v>66</v>
       </c>
@@ -8578,7 +8637,7 @@
         <v>114447.4</v>
       </c>
     </row>
-    <row r="7" spans="1:62" ht="14.4">
+    <row r="7" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="129" t="s">
         <v>67</v>
       </c>
@@ -8766,7 +8825,7 @@
         <v>96331.199999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:62" ht="14.4">
+    <row r="8" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="191" t="s">
         <v>68</v>
       </c>
@@ -8954,7 +9013,7 @@
         <v>12110.9</v>
       </c>
     </row>
-    <row r="9" spans="1:62" ht="14.4">
+    <row r="9" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="253" t="s">
         <v>69</v>
       </c>
@@ -9142,7 +9201,7 @@
         <v>5853.3</v>
       </c>
     </row>
-    <row r="10" spans="1:62" ht="14.4">
+    <row r="10" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="315" t="s">
         <v>70</v>
       </c>
@@ -9330,7 +9389,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="11" spans="1:62" ht="14.4">
+    <row r="11" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="377" t="s">
         <v>71</v>
       </c>
@@ -9518,7 +9577,7 @@
         <v>313699.5</v>
       </c>
     </row>
-    <row r="12" spans="1:62" ht="14.4">
+    <row r="12" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="439" t="s">
         <v>72</v>
       </c>
@@ -9706,7 +9765,7 @@
         <v>81783.100000000006</v>
       </c>
     </row>
-    <row r="13" spans="1:62" ht="14.4">
+    <row r="13" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="501" t="s">
         <v>73</v>
       </c>
@@ -9894,7 +9953,7 @@
         <v>75314.899999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:62" ht="14.4">
+    <row r="14" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="518" t="s">
         <v>75</v>
       </c>
@@ -10082,7 +10141,7 @@
         <v>6468.2</v>
       </c>
     </row>
-    <row r="15" spans="1:62" ht="14.4">
+    <row r="15" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="535" t="s">
         <v>76</v>
       </c>
@@ -10270,7 +10329,7 @@
         <v>23982.2</v>
       </c>
     </row>
-    <row r="16" spans="1:62" ht="14.4">
+    <row r="16" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="597" t="s">
         <v>77</v>
       </c>
@@ -10458,7 +10517,7 @@
         <v>6301.8</v>
       </c>
     </row>
-    <row r="17" spans="1:62" ht="14.4">
+    <row r="17" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="659" t="s">
         <v>78</v>
       </c>
@@ -10646,7 +10705,7 @@
         <v>1903.5</v>
       </c>
     </row>
-    <row r="18" spans="1:62" ht="14.4">
+    <row r="18" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="676" t="s">
         <v>79</v>
       </c>
@@ -10834,7 +10893,7 @@
         <v>4398.3</v>
       </c>
     </row>
-    <row r="19" spans="1:62" ht="14.4">
+    <row r="19" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="693" t="s">
         <v>80</v>
       </c>
@@ -11022,7 +11081,7 @@
         <v>22862.6</v>
       </c>
     </row>
-    <row r="20" spans="1:62" ht="14.4">
+    <row r="20" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="755" t="s">
         <v>81</v>
       </c>
@@ -11210,7 +11269,7 @@
         <v>70297.8</v>
       </c>
     </row>
-    <row r="21" spans="1:62" ht="14.4">
+    <row r="21" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="817" t="s">
         <v>82</v>
       </c>
@@ -11398,7 +11457,7 @@
         <v>59969.4</v>
       </c>
     </row>
-    <row r="22" spans="1:62" ht="14.4">
+    <row r="22" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="879" t="s">
         <v>83</v>
       </c>
@@ -11586,7 +11645,7 @@
         <v>13482</v>
       </c>
     </row>
-    <row r="23" spans="1:62" ht="14.4">
+    <row r="23" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="896" t="s">
         <v>84</v>
       </c>
@@ -11774,7 +11833,7 @@
         <v>26370.5</v>
       </c>
     </row>
-    <row r="24" spans="1:62" ht="14.4">
+    <row r="24" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="913" t="s">
         <v>85</v>
       </c>
@@ -11962,7 +12021,7 @@
         <v>20116.900000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:62" ht="14.4">
+    <row r="25" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="930" t="s">
         <v>86</v>
       </c>
@@ -12150,7 +12209,7 @@
         <v>48502.6</v>
       </c>
     </row>
-    <row r="26" spans="1:62" ht="14.4">
+    <row r="26" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="992" t="s">
         <v>87</v>
       </c>
@@ -12338,7 +12397,7 @@
         <v>19114.400000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:62" ht="14.4">
+    <row r="27" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1054" t="s">
         <v>88</v>
       </c>
@@ -12526,7 +12585,7 @@
         <v>447261.3</v>
       </c>
     </row>
-    <row r="28" spans="1:62" ht="14.4">
+    <row r="28" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1116" t="s">
         <v>89</v>
       </c>
@@ -12714,7 +12773,7 @@
         <v>21834.6</v>
       </c>
     </row>
-    <row r="29" spans="1:62" ht="28.8">
+    <row r="29" spans="1:62" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="2" t="s">
         <v>90</v>
       </c>
@@ -12902,7 +12961,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="1:62" ht="14.4">
+    <row r="30" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1178" t="s">
         <v>91</v>
       </c>
@@ -13090,7 +13149,7 @@
         <v>453821.2</v>
       </c>
     </row>
-    <row r="31" spans="1:62" ht="14.4">
+    <row r="31" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1240" t="s">
         <v>66</v>
       </c>
@@ -13278,7 +13337,7 @@
         <v>118594.2</v>
       </c>
     </row>
-    <row r="32" spans="1:62" ht="14.4">
+    <row r="32" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1302" t="s">
         <v>67</v>
       </c>
@@ -13466,7 +13525,7 @@
         <v>99211.1</v>
       </c>
     </row>
-    <row r="33" spans="1:62" ht="14.4">
+    <row r="33" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1364" t="s">
         <v>68</v>
       </c>
@@ -13654,7 +13713,7 @@
         <v>12574.4</v>
       </c>
     </row>
-    <row r="34" spans="1:62" ht="14.4">
+    <row r="34" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1426" t="s">
         <v>69</v>
       </c>
@@ -13842,7 +13901,7 @@
         <v>5770.9</v>
       </c>
     </row>
-    <row r="35" spans="1:62" ht="14.4">
+    <row r="35" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1488" t="s">
         <v>70</v>
       </c>
@@ -14030,7 +14089,7 @@
         <v>139.80000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:62" ht="14.4">
+    <row r="36" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1550" t="s">
         <v>71</v>
       </c>
@@ -14218,7 +14277,7 @@
         <v>289345.5</v>
       </c>
     </row>
-    <row r="37" spans="1:62" ht="14.4">
+    <row r="37" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1612" t="s">
         <v>72</v>
       </c>
@@ -14406,7 +14465,7 @@
         <v>65449.3</v>
       </c>
     </row>
-    <row r="38" spans="1:62" ht="14.4">
+    <row r="38" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1674" t="s">
         <v>73</v>
       </c>
@@ -14594,7 +14653,7 @@
         <v>58964.9</v>
       </c>
     </row>
-    <row r="39" spans="1:62" ht="14.4">
+    <row r="39" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1691" t="s">
         <v>75</v>
       </c>
@@ -14782,7 +14841,7 @@
         <v>6240.1</v>
       </c>
     </row>
-    <row r="40" spans="1:62" ht="14.4">
+    <row r="40" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1708" t="s">
         <v>76</v>
       </c>
@@ -14970,7 +15029,7 @@
         <v>24041.7</v>
       </c>
     </row>
-    <row r="41" spans="1:62" ht="14.4">
+    <row r="41" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1770" t="s">
         <v>77</v>
       </c>
@@ -15158,7 +15217,7 @@
         <v>7029.6</v>
       </c>
     </row>
-    <row r="42" spans="1:62" ht="14.4">
+    <row r="42" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1832" t="s">
         <v>78</v>
       </c>
@@ -15346,7 +15405,7 @@
         <v>2969.3</v>
       </c>
     </row>
-    <row r="43" spans="1:62" ht="14.4">
+    <row r="43" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1849" t="s">
         <v>79</v>
       </c>
@@ -15534,7 +15593,7 @@
         <v>4061.6</v>
       </c>
     </row>
-    <row r="44" spans="1:62" ht="14.4">
+    <row r="44" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1866" t="s">
         <v>80</v>
       </c>
@@ -15722,7 +15781,7 @@
         <v>21731</v>
       </c>
     </row>
-    <row r="45" spans="1:62" ht="14.4">
+    <row r="45" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1928" t="s">
         <v>81</v>
       </c>
@@ -15910,7 +15969,7 @@
         <v>65024.3</v>
       </c>
     </row>
-    <row r="46" spans="1:62" ht="14.4">
+    <row r="46" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1990" t="s">
         <v>82</v>
       </c>
@@ -16098,7 +16157,7 @@
         <v>58864.7</v>
       </c>
     </row>
-    <row r="47" spans="1:62" ht="14.4">
+    <row r="47" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2052" t="s">
         <v>83</v>
       </c>
@@ -16286,7 +16345,7 @@
         <v>14386</v>
       </c>
     </row>
-    <row r="48" spans="1:62" ht="14.4">
+    <row r="48" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2069" t="s">
         <v>84</v>
       </c>
@@ -16474,7 +16533,7 @@
         <v>25316.2</v>
       </c>
     </row>
-    <row r="49" spans="1:62" ht="14.4">
+    <row r="49" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2086" t="s">
         <v>85</v>
       </c>
@@ -16662,7 +16721,7 @@
         <v>19131.7</v>
       </c>
     </row>
-    <row r="50" spans="1:62" ht="14.4">
+    <row r="50" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2103" t="s">
         <v>86</v>
       </c>
@@ -16850,7 +16909,7 @@
         <v>46297.4</v>
       </c>
     </row>
-    <row r="51" spans="1:62" ht="14.4">
+    <row r="51" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2165" t="s">
         <v>87</v>
       </c>
@@ -17038,7 +17097,7 @@
         <v>21886.5</v>
       </c>
     </row>
-    <row r="52" spans="1:62" ht="14.4">
+    <row r="52" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2227" t="s">
         <v>88</v>
       </c>
@@ -17226,7 +17285,7 @@
         <v>428808.4</v>
       </c>
     </row>
-    <row r="53" spans="1:62" ht="14.4">
+    <row r="53" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2289" t="s">
         <v>89</v>
       </c>
@@ -17414,85 +17473,85 @@
         <v>24336.400000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:62" ht="14.4">
+    <row r="56" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="57" spans="1:62" ht="14.4"/>
-    <row r="58" spans="1:62" ht="14.4">
+    <row r="57" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="58" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="59" spans="1:62" ht="14.4">
+    <row r="59" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="60" spans="1:62" ht="14.4">
+    <row r="60" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="61" spans="1:62" ht="14.4"/>
-    <row r="62" spans="1:62" ht="14.4">
+    <row r="61" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="62" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:62" ht="14.4"/>
-    <row r="64" spans="1:62" ht="14.4">
+    <row r="63" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="64" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="14.4"/>
-    <row r="66" spans="1:1" ht="14.4">
+    <row r="65" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="66" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="14.4"/>
-    <row r="68" spans="1:1" ht="14.4">
+    <row r="67" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="68" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="14.4">
+    <row r="69" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="14.4">
+    <row r="70" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="14.4"/>
-    <row r="72" spans="1:1" ht="14.4">
+    <row r="71" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="72" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="14.4"/>
-    <row r="74" spans="1:1" ht="14.4">
+    <row r="73" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="74" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="14.4"/>
-    <row r="80" spans="1:1" ht="14.4">
+    <row r="75" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="80" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="14.4">
+    <row r="81" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="14.4">
+    <row r="82" spans="1:1" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" t="s">
         <v>103</v>
       </c>
@@ -17510,14 +17569,14 @@
       <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="27.68359375" customWidth="1"/>
     <col min="2" max="2" width="58.7890625" customWidth="1"/>
     <col min="3" max="3" width="20.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" customHeight="1">
+    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -17549,7 +17608,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.4">
+    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2352" t="s">
         <v>66</v>
       </c>
@@ -17578,7 +17637,7 @@
         <v>105762.7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4">
+    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2352" t="s">
         <v>66</v>
       </c>
@@ -17607,7 +17666,7 @@
         <v>17827.099999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4">
+    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2352" t="s">
         <v>66</v>
       </c>
@@ -17636,7 +17695,7 @@
         <v>5719.4</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4">
+    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2352" t="s">
         <v>66</v>
       </c>
@@ -17665,7 +17724,7 @@
         <v>153.19999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4">
+    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17694,7 +17753,7 @@
         <v>79669.399999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4">
+    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17723,7 +17782,7 @@
         <v>7936.5</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4">
+    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17752,7 +17811,7 @@
         <v>30684.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4">
+    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17781,7 +17840,7 @@
         <v>4224.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4">
+    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17810,7 +17869,7 @@
         <v>5643.5</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4">
+    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17839,7 +17898,7 @@
         <v>19755.2</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4">
+    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17868,7 +17927,7 @@
         <v>62535.7</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4">
+    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17897,7 +17956,7 @@
         <v>16421.900000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="14.4">
+    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17926,7 +17985,7 @@
         <v>27039</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4">
+    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17955,7 +18014,7 @@
         <v>26837.1</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="14.4">
+    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17984,7 +18043,7 @@
         <v>52584.1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="14.4">
+    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2352" t="s">
         <v>87</v>
       </c>
@@ -18013,7 +18072,7 @@
         <v>17751</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="14.4">
+    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2352" t="s">
         <v>89</v>
       </c>
@@ -18050,67 +18109,76 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAEE12E-E6B0-47B3-8C52-1993CC176FC3}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="68.3671875" customWidth="1"/>
+    <col min="1" max="1" width="10.7890625" style="2354" customWidth="1"/>
+    <col min="2" max="2" width="23.9453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.2">
-      <c r="A1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H1" s="2353" t="s">
-        <v>108</v>
+    <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="2357" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="2358" t="s">
+        <v>109</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4">
-      <c r="A2" s="1178" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="2350">
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="2355">
+        <v>2013</v>
+      </c>
+      <c r="B2" s="2356">
         <v>384870.3</v>
       </c>
-      <c r="C2" s="2350">
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="2355">
+        <v>2014</v>
+      </c>
+      <c r="B3" s="2356">
         <v>398947.9</v>
       </c>
-      <c r="D2" s="2350">
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="2355">
+        <v>2015</v>
+      </c>
+      <c r="B4" s="2356">
         <v>423444.1</v>
       </c>
-      <c r="E2" s="2350">
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="2355">
+        <v>2016</v>
+      </c>
+      <c r="B5" s="2356">
         <v>440372.2</v>
       </c>
-      <c r="F2" s="2350">
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="2355">
+        <v>2017</v>
+      </c>
+      <c r="B6" s="2356">
         <v>474115.1</v>
       </c>
-      <c r="G2" s="2350">
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="2355">
+        <v>2018</v>
+      </c>
+      <c r="B7" s="2356">
         <v>507123.9</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{D2E189D8-6240-4ED1-9DDD-0B90FEE3DB7A}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/SG GDP Total and by Industry ANNUAL.xlsx
+++ b/data/SG GDP Total and by Industry ANNUAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\MTech EBAC Sem 1\Practice Module\F5-APM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D82E00DA-95AA-444F-AD77-08FE742EEE4C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8123C131-48F2-459E-B042-F8AE22604839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="GDP Total" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'GDP per sector'!$A$1:$I$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'GDP per sector'!$A$1:$K$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'GDP Total'!$A$1:$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -432,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -457,17 +457,6 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -481,11 +470,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2359">
+  <cellXfs count="2366">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7537,24 +7548,41 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7871,13 +7899,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:BJ82"/>
   <sheetViews>
-    <sheetView topLeftCell="AS1" workbookViewId="0">
-      <selection activeCell="BC52" sqref="BC52"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="BM28" sqref="BM28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="68.3671875" customWidth="1"/>
+    <col min="2" max="60" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:62" ht="14.4" x14ac:dyDescent="0.55000000000000004">
@@ -17563,10 +17592,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14271DA-2734-4490-A4D3-8CEEE5275FB0}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -17576,7 +17605,7 @@
     <col min="3" max="3" width="20.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" ht="43.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>104</v>
       </c>
@@ -17601,14 +17630,17 @@
       <c r="H1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2358" t="s">
         <v>60</v>
       </c>
-      <c r="J1" s="2353" t="s">
+      <c r="J1" s="2362">
+        <v>2019</v>
+      </c>
+      <c r="K1" s="2361" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2352" t="s">
         <v>66</v>
       </c>
@@ -17633,11 +17665,14 @@
       <c r="H2" s="2335">
         <v>88265</v>
       </c>
-      <c r="I2" s="2350">
+      <c r="I2" s="2359">
         <v>105762.7</v>
       </c>
+      <c r="J2" s="2355">
+        <v>99360.7</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2352" t="s">
         <v>66</v>
       </c>
@@ -17662,11 +17697,14 @@
       <c r="H3" s="2350">
         <v>17864.3</v>
       </c>
-      <c r="I3" s="2350">
+      <c r="I3" s="2359">
         <v>17827.099999999999</v>
       </c>
+      <c r="J3" s="2355">
+        <v>18486.400000000001</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2352" t="s">
         <v>66</v>
       </c>
@@ -17691,11 +17729,14 @@
       <c r="H4" s="2350">
         <v>5500.2</v>
       </c>
-      <c r="I4" s="2350">
+      <c r="I4" s="2359">
         <v>5719.4</v>
       </c>
+      <c r="J4" s="2355">
+        <v>5795.1</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2352" t="s">
         <v>66</v>
       </c>
@@ -17720,11 +17761,14 @@
       <c r="H5" s="2350">
         <v>145.9</v>
       </c>
-      <c r="I5" s="2350">
+      <c r="I5" s="2359">
         <v>153.19999999999999</v>
       </c>
+      <c r="J5" s="2355">
+        <v>165.4</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17749,11 +17793,14 @@
       <c r="H6" s="2350">
         <v>74324.899999999994</v>
       </c>
-      <c r="I6" s="2350">
+      <c r="I6" s="2359">
         <v>79669.399999999994</v>
       </c>
+      <c r="J6" s="2355">
+        <v>78511.7</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17778,11 +17825,14 @@
       <c r="H7" s="2350">
         <v>7781.3</v>
       </c>
-      <c r="I7" s="2350">
+      <c r="I7" s="2359">
         <v>7936.5</v>
       </c>
+      <c r="J7" s="2355">
+        <v>7613.8</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17807,11 +17857,14 @@
       <c r="H8" s="2350">
         <v>31531.8</v>
       </c>
-      <c r="I8" s="2350">
+      <c r="I8" s="2359">
         <v>30684.5</v>
       </c>
+      <c r="J8" s="2355">
+        <v>31682.400000000001</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17836,11 +17889,14 @@
       <c r="H9" s="2350">
         <v>3891.8</v>
       </c>
-      <c r="I9" s="2350">
+      <c r="I9" s="2359">
         <v>4224.5</v>
       </c>
+      <c r="J9" s="2355">
+        <v>4309.5</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17865,11 +17921,14 @@
       <c r="H10" s="2335">
         <v>5525</v>
       </c>
-      <c r="I10" s="2350">
+      <c r="I10" s="2359">
         <v>5643.5</v>
       </c>
+      <c r="J10" s="2355">
+        <v>5784.7</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17894,11 +17953,14 @@
       <c r="H11" s="2350">
         <v>18718.2</v>
       </c>
-      <c r="I11" s="2350">
+      <c r="I11" s="2359">
         <v>19755.2</v>
       </c>
+      <c r="J11" s="2355">
+        <v>22325.5</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17923,11 +17985,14 @@
       <c r="H12" s="2350">
         <v>56853.3</v>
       </c>
-      <c r="I12" s="2350">
+      <c r="I12" s="2359">
         <v>62535.7</v>
       </c>
+      <c r="J12" s="2355">
+        <v>68168.3</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17952,11 +18017,14 @@
       <c r="H13" s="2350">
         <v>15703.3</v>
       </c>
-      <c r="I13" s="2350">
+      <c r="I13" s="2359">
         <v>16421.900000000001</v>
       </c>
+      <c r="J13" s="2355">
+        <v>16592</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2351" t="s">
         <v>71</v>
       </c>
@@ -17981,11 +18049,14 @@
       <c r="H14" s="2350">
         <v>25745.7</v>
       </c>
-      <c r="I14" s="2335">
+      <c r="I14" s="2360">
         <v>27039</v>
       </c>
+      <c r="J14" s="2363">
+        <v>29084.7</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="2351" t="s">
         <v>71</v>
       </c>
@@ -18010,11 +18081,14 @@
       <c r="H15" s="2350">
         <v>25428.9</v>
       </c>
-      <c r="I15" s="2350">
+      <c r="I15" s="2359">
         <v>26837.1</v>
       </c>
+      <c r="J15" s="2355">
+        <v>23967.599999999999</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2351" t="s">
         <v>71</v>
       </c>
@@ -18039,11 +18113,14 @@
       <c r="H16" s="2350">
         <v>50525.4</v>
       </c>
-      <c r="I16" s="2350">
+      <c r="I16" s="2359">
         <v>52584.1</v>
       </c>
+      <c r="J16" s="2355">
+        <v>54461.8</v>
+      </c>
     </row>
-    <row r="17" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2352" t="s">
         <v>87</v>
       </c>
@@ -18068,11 +18145,14 @@
       <c r="H17" s="2350">
         <v>17436.3</v>
       </c>
-      <c r="I17" s="2335">
+      <c r="I17" s="2360">
         <v>17751</v>
       </c>
+      <c r="J17" s="2363">
+        <v>18453</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2352" t="s">
         <v>89</v>
       </c>
@@ -18097,84 +18177,98 @@
       <c r="H18" s="2350">
         <v>28873.8</v>
       </c>
-      <c r="I18" s="2350">
+      <c r="I18" s="2359">
         <v>26579.1</v>
       </c>
+      <c r="J18" s="2355">
+        <v>25975.200000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="J19" s="2364"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I1" xr:uid="{A8A475BF-A0A3-4115-B267-9E6346BCA360}"/>
+  <autoFilter ref="A1:K18" xr:uid="{22D36761-DEB3-4695-842A-B3F141934BF6}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAEE12E-E6B0-47B3-8C52-1993CC176FC3}">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.7890625" style="2354" customWidth="1"/>
+    <col min="1" max="1" width="10.7890625" style="2353" customWidth="1"/>
     <col min="2" max="2" width="23.9453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="2357" t="s">
+      <c r="A1" s="2356" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="2358" t="s">
+      <c r="B1" s="2357" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="2355">
+      <c r="A2" s="2354">
         <v>2013</v>
       </c>
-      <c r="B2" s="2356">
+      <c r="B2" s="2355">
         <v>384870.3</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="2355">
+      <c r="A3" s="2354">
         <v>2014</v>
       </c>
-      <c r="B3" s="2356">
+      <c r="B3" s="2355">
         <v>398947.9</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="2355">
+      <c r="A4" s="2354">
         <v>2015</v>
       </c>
-      <c r="B4" s="2356">
+      <c r="B4" s="2355">
         <v>423444.1</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="2355">
+      <c r="A5" s="2354">
         <v>2016</v>
       </c>
-      <c r="B5" s="2356">
+      <c r="B5" s="2355">
         <v>440372.2</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="2355">
+      <c r="A6" s="2354">
         <v>2017</v>
       </c>
-      <c r="B6" s="2356">
+      <c r="B6" s="2355">
         <v>474115.1</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="2355">
+      <c r="A7" s="2354">
         <v>2018</v>
       </c>
-      <c r="B7" s="2356">
+      <c r="B7" s="2355">
         <v>507123.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="2354">
+        <v>2019</v>
+      </c>
+      <c r="B8" s="2365">
+        <v>510737.8</v>
       </c>
     </row>
   </sheetData>

--- a/data/SG GDP Total and by Industry ANNUAL.xlsx
+++ b/data/SG GDP Total and by Industry ANNUAL.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\MTech EBAC Sem 1\Practice Module\F5-APM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8123C131-48F2-459E-B042-F8AE22604839}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3725D1D5-D90F-4AED-BAF6-23DBDBB8FF77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2366">
+  <cellXfs count="2367">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7583,6 +7583,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7899,7 +7902,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:BJ82"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="BM28" sqref="BM28"/>
     </sheetView>
   </sheetViews>
@@ -17595,7 +17598,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -17609,10 +17612,10 @@
       <c r="A1" t="s">
         <v>104</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2366" t="s">
         <v>105</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2366" t="s">
         <v>106</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -18198,7 +18201,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>

--- a/data/SG GDP Total and by Industry ANNUAL.xlsx
+++ b/data/SG GDP Total and by Industry ANNUAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\MTech EBAC Sem 1\Practice Module\F5-APM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3725D1D5-D90F-4AED-BAF6-23DBDBB8FF77}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB83A13-1741-48ED-B38F-73E22A189B13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17598,7 +17598,7 @@
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="C1" sqref="C1:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -18201,7 +18201,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>

--- a/data/SG GDP Total and by Industry ANNUAL.xlsx
+++ b/data/SG GDP Total and by Industry ANNUAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sam\Desktop\MTech EBAC Sem 1\Practice Module\F5-APM\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB83A13-1741-48ED-B38F-73E22A189B13}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C76CE41-2D52-4D4B-BBF1-10901851167C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="raw" sheetId="1" r:id="rId1"/>
@@ -17597,8 +17597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E14271DA-2734-4490-A4D3-8CEEE5275FB0}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:J18"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -18200,8 +18200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CAEE12E-E6B0-47B3-8C52-1993CC176FC3}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -18223,6 +18223,7 @@
         <v>2013</v>
       </c>
       <c r="B2" s="2355">
+        <f>SUM('GDP per sector'!D$2:D$18)</f>
         <v>384870.3</v>
       </c>
     </row>
@@ -18231,7 +18232,8 @@
         <v>2014</v>
       </c>
       <c r="B3" s="2355">
-        <v>398947.9</v>
+        <f>SUM('GDP per sector'!E$2:E$18)</f>
+        <v>398947.90000000008</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -18239,6 +18241,7 @@
         <v>2015</v>
       </c>
       <c r="B4" s="2355">
+        <f>SUM('GDP per sector'!F$2:F$18)</f>
         <v>423444.1</v>
       </c>
     </row>
@@ -18247,6 +18250,7 @@
         <v>2016</v>
       </c>
       <c r="B5" s="2355">
+        <f>SUM('GDP per sector'!G$2:G$18)</f>
         <v>440372.2</v>
       </c>
     </row>
@@ -18255,6 +18259,7 @@
         <v>2017</v>
       </c>
       <c r="B6" s="2355">
+        <f>SUM('GDP per sector'!H$2:H$18)</f>
         <v>474115.1</v>
       </c>
     </row>
@@ -18263,7 +18268,8 @@
         <v>2018</v>
       </c>
       <c r="B7" s="2355">
-        <v>507123.9</v>
+        <f>SUM('GDP per sector'!I$2:I$18)</f>
+        <v>507123.89999999997</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
@@ -18271,7 +18277,8 @@
         <v>2019</v>
       </c>
       <c r="B8" s="2365">
-        <v>510737.8</v>
+        <f>SUM('GDP per sector'!J$2:J$18)</f>
+        <v>510737.79999999993</v>
       </c>
     </row>
   </sheetData>
